--- a/tests/resources/test_master_4_2019_dcas.xlsx
+++ b/tests/resources/test_master_4_2019_dcas.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="72">
   <si>
     <t xml:space="preserve">Project/Programme Name</t>
   </si>
@@ -233,6 +233,9 @@
   </si>
   <si>
     <t xml:space="preserve">Overall Resource DCA - Future</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Total Forecast</t>
   </si>
 </sst>
 </file>
@@ -436,7 +439,7 @@
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="63" zoomScaleNormal="63" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="B27" activeCellId="0" sqref="B27"/>
+      <selection pane="bottomLeft" activeCell="K27" activeCellId="0" sqref="K27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5859375" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -929,6 +932,29 @@
     <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="1" t="s">
         <v>70</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="B28" s="1" t="n">
+        <v>400</v>
+      </c>
+      <c r="C28" s="1" t="n">
+        <v>3902</v>
+      </c>
+      <c r="D28" s="1" t="n">
+        <v>482789</v>
+      </c>
+      <c r="E28" s="1" t="n">
+        <v>67326</v>
+      </c>
+      <c r="F28" s="1" t="n">
+        <v>98</v>
+      </c>
+      <c r="G28" s="0" t="n">
+        <v>6371</v>
       </c>
     </row>
     <row r="1046638" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>

--- a/tests/resources/test_master_4_2019_dcas.xlsx
+++ b/tests/resources/test_master_4_2019_dcas.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="73">
   <si>
     <t xml:space="preserve">Project/Programme Name</t>
   </si>
@@ -236,6 +236,9 @@
   </si>
   <si>
     <t xml:space="preserve">Total Forecast</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DfT Group</t>
   </si>
 </sst>
 </file>
@@ -439,7 +442,7 @@
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="63" zoomScaleNormal="63" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="K27" activeCellId="0" sqref="K27"/>
+      <selection pane="bottomLeft" activeCell="A30" activeCellId="0" sqref="A30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5859375" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -955,6 +958,11 @@
       </c>
       <c r="G28" s="0" t="n">
         <v>6371</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="1" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="1046638" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>

--- a/tests/resources/test_master_4_2019_dcas.xlsx
+++ b/tests/resources/test_master_4_2019_dcas.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="74">
   <si>
     <t xml:space="preserve">Project/Programme Name</t>
   </si>
@@ -239,6 +239,9 @@
   </si>
   <si>
     <t xml:space="preserve">DfT Group</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GMPP - IPA ID Number</t>
   </si>
 </sst>
 </file>
@@ -963,6 +966,11 @@
     <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="1" t="s">
         <v>72</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="1" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="1046638" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
